--- a/output/articles-brexit.xlsx
+++ b/output/articles-brexit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>title</t>
   </si>
@@ -128,138 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Former U.K. leader Liz Truss blames others for her brief, chaotic tenure — and she endorses Trump.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ireland to get its youngest ever premier as Harris elected leader of Fine Gael party </t>
-  </si>
-  <si>
-    <t>Simon Harris secured the leadership of the Fine Gael party on Sunday. He replaces Leo Varadkar, who announced his surprise resignation last week.</t>
-  </si>
-  <si>
-    <t>03/24/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ireland to get its youngest ever premier as Harris elected leader of Fine Gael party.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish prime minister says he’s quitting for personal and political reasons </t>
-  </si>
-  <si>
-    <t>Leo Varadkar, Ireland’s first gay and biracial prime minister, says he is quitting immediately as head of the center-right Fine Gael party. He will be replaced in April.</t>
-  </si>
-  <si>
-    <t>03/20/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish prime minister says he’s quitting for personal and political reasons.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Column: What would banning TikTok accomplish? Answer: Virtually nothing </t>
-  </si>
-  <si>
-    <t>A Congress that can’t decide whether tunafish or chicken salad is a better sandwich is trying to ban TikTok. That’s a sign of its inability to do anything substantive.</t>
-  </si>
-  <si>
-    <t>03/14/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Column: What would banning TikTok accomplish? Answer: Virtually nothing.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U.K. and Texas sign trade agreement as broader deal with U.S. remains stalled </t>
-  </si>
-  <si>
-    <t>Texas Gov. Greg Abbott, who met with Prime Minister Rishi Sunak, signed the document in London alongside U.K. Trade Secretary Kemi Badenoch.</t>
-  </si>
-  <si>
-    <t>03/13/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U.K. and Texas sign trade agreement as broader deal with U.S. remains stalled.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U.K. voters elect two Labor lawmakers, delivering new blow to prime minister’s party  </t>
-  </si>
-  <si>
-    <t>Voters in two districts in England have delivered new blows to beleaguered Prime Minister Rishi Sunak.</t>
-  </si>
-  <si>
-    <t>02/16/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U.K. voters elect two Labor lawmakers, delivering new blow to prime minister’s party.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> An Irish nationalist is leader of Northern Ireland’s government for the first time </t>
-  </si>
-  <si>
-    <t>Sinn Fein official makes history by becoming the first Irish nationalist to be Northern Ireland’s first minister under the power-sharing government.</t>
-  </si>
-  <si>
-    <t>02/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> An Irish nationalist is leader of Northern Ireland’s government for the first time.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Northern Ireland party agrees to end 2-year boycott that caused government to collapse </t>
-  </si>
-  <si>
-    <t>Northern Ireland’s largest British unionist party agrees to end a boycott that left the region’s power-sharing government idle for two years.</t>
-  </si>
-  <si>
-    <t>01/30/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Northern Ireland party agrees to end 2-year boycott that caused government to collapse.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Column: Davos, where the rich and powerful go to show off their ignorance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following a tradition of know-nothing pronouncements at the World Economic Forum, JPMorgan CEO Jamie Dimon declares Trump right about immigration, tax cuts, NATO and the economy. </t>
-  </si>
-  <si>
-    <t>01/17/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Column: Davos, where the rich and powerful go to show off their ignorance.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More than 50 countries go to the polls in 2024. The year will test even the most robust democracies </t>
-  </si>
-  <si>
-    <t>More than 50 countries that together have half the world’s population are expecting national elections in 2024.</t>
-  </si>
-  <si>
-    <t>01/11/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More than 50 countries go to the polls in 2024. The year will test even the most robust democracies.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Britain unveils tough new rules designed to cut immigrant numbers </t>
-  </si>
-  <si>
-    <t>The British government says the new rules will reduce the number of people able to move to the U.K. each year by hundreds of thousands.</t>
-  </si>
-  <si>
-    <t>12/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Britain unveils tough new rules designed to cut immigrant numbers.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ex-Prime Minister David Cameron makes shock comeback as Britain’s foreign secretary </t>
-  </si>
-  <si>
-    <t>Former Prime Minister David Cameron has made a shock return to high office, appointed as Britain’s new foreign secretary in a Cabinet shakeup.</t>
-  </si>
-  <si>
-    <t>11/13/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ex-Prime Minister David Cameron makes shock comeback as Britain’s foreign secretary.jpeg</t>
   </si>
 </sst>
 </file>
@@ -591,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,226 +645,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/articles-brexit.xlsx
+++ b/output/articles-brexit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -116,18 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Britain’s Conservatives suffer historic losses in elections as Labor edges closer to power.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Former U.K. leader Liz Truss blames others for her brief, chaotic tenure — and she endorses Trump </t>
-  </si>
-  <si>
-    <t>Liz Truss sparked mayhem on the financial markets and turmoil within her Conservative Party during her 49 days as Britain’s prime minister.</t>
-  </si>
-  <si>
-    <t>04/16/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Former U.K. leader Liz Truss blames others for her brief, chaotic tenure — and she endorses Trump.jpeg</t>
   </si>
 </sst>
 </file>
@@ -459,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,26 +613,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
